--- a/Datasets/WorldCUP/wcup_template.xlsx
+++ b/Datasets/WorldCUP/wcup_template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\Assorted-Projects\Datasets\WorldCUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1001068B-3B35-4999-BFA1-1AAB1787D9C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6EFBBD-340A-4AF5-AC15-561E32CBC9E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="4740" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="4740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Korea Republic</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -150,13 +147,16 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +287,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,8 +641,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,18 +998,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1024,7 +1033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>1441</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1050,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>1584</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1076,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>1761</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1102,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>1633</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1128,7 +1137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>1765</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1154,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>1653</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1180,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>1658</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1206,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>1789</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1232,7 +1241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>1551</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1258,7 +1267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>1650</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1284,7 +1293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>1709</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1310,7 +1319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>1827</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1335,8 +1344,9 @@
       <c r="H13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>1635</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1362,7 +1372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>1635</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1385,10 +1395,10 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1402,16 +1412,16 @@
         <v>1674</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
@@ -1428,16 +1438,16 @@
         <v>1832</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
@@ -1454,7 +1464,7 @@
         <v>1588</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1480,7 +1490,7 @@
         <v>1441</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1506,7 +1516,7 @@
         <v>1658</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1532,7 +1542,7 @@
         <v>1761</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1558,7 +1568,7 @@
         <v>1499</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1584,7 +1594,7 @@
         <v>1544</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1610,7 +1620,7 @@
         <v>1789</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1636,7 +1646,7 @@
         <v>1765</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1662,7 +1672,7 @@
         <v>1553</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1688,7 +1698,7 @@
         <v>1827</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1714,7 +1724,7 @@
         <v>1621</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1740,7 +1750,7 @@
         <v>1709</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1766,7 +1776,7 @@
         <v>1480</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1775,7 +1785,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
@@ -1792,16 +1802,16 @@
         <v>1519</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
@@ -1818,13 +1828,13 @@
         <v>1832</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
         <v>31</v>
@@ -1844,13 +1854,13 @@
         <v>1674</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>33</v>
@@ -1870,7 +1880,7 @@
         <v>1452</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1896,7 +1906,7 @@
         <v>1658</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1922,7 +1932,7 @@
         <v>1588</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1948,7 +1958,7 @@
         <v>1564</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1974,7 +1984,7 @@
         <v>1462</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2000,7 +2010,7 @@
         <v>1499</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2026,7 +2036,7 @@
         <v>1544</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2052,7 +2062,7 @@
         <v>1444</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2078,7 +2088,7 @@
         <v>1621</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2104,7 +2114,7 @@
         <v>1479</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2130,7 +2140,7 @@
         <v>1553</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2156,7 +2166,7 @@
         <v>1503</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2182,13 +2192,13 @@
         <v>1387</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
         <v>33</v>
@@ -2208,16 +2218,16 @@
         <v>1519</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
         <v>34</v>
-      </c>
-      <c r="H47" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
@@ -2234,13 +2244,13 @@
         <v>1547</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
         <v>31</v>
@@ -2260,7 +2270,7 @@
         <v>1480</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2269,16 +2279,17 @@
         <v>32</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2315,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2326,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2337,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2348,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2359,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2370,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2381,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2392,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2404,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2441,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2452,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2463,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2474,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2486,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2534,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2546,10 +2557,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
